--- a/src/main/resources/available_rooms.xlsx
+++ b/src/main/resources/available_rooms.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scq37\Desktop\Git\PROJECKT\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11649BBC-8123-4E94-A906-2F805137A8A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4533298D-3189-4E77-B979-D7CE96EE5837}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="911" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="24">
   <si>
     <t>월</t>
   </si>
@@ -90,6 +90,16 @@
   </si>
   <si>
     <t>16:00 ~ 16:50</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>토</t>
+  </si>
+  <si>
+    <t>일</t>
+  </si>
+  <si>
+    <t>비어있음</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -462,13 +472,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -484,8 +496,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -498,8 +516,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -509,8 +533,14 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -520,8 +550,14 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -537,8 +573,14 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -554,8 +596,14 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -565,8 +613,14 @@
       <c r="E7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -579,8 +633,14 @@
       <c r="E8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -596,8 +656,14 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -610,8 +676,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -630,8 +702,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -650,8 +728,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -670,8 +754,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -688,6 +778,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -699,13 +795,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G2:H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -721,8 +819,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -738,8 +842,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -749,8 +859,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -760,8 +876,14 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -774,8 +896,14 @@
       <c r="D5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -788,8 +916,14 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -799,8 +933,14 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -813,8 +953,14 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -827,8 +973,14 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -841,8 +993,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -858,8 +1016,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -878,8 +1042,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -898,8 +1068,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -916,6 +1092,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -927,13 +1109,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G14" sqref="G2:H14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -949,8 +1133,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -966,8 +1156,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -983,8 +1179,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1000,8 +1202,14 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1014,8 +1222,14 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1031,8 +1245,14 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1045,8 +1265,14 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1059,8 +1285,14 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
@@ -1070,8 +1302,14 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1090,8 +1328,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1110,8 +1354,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1130,8 +1380,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1150,8 +1406,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1168,6 +1430,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1179,13 +1447,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1201,8 +1471,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1215,8 +1491,14 @@
       <c r="E2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1226,8 +1508,14 @@
       <c r="E3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1240,8 +1528,14 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1257,16 +1551,28 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1276,8 +1582,14 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1287,16 +1599,28 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1312,8 +1636,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1332,8 +1662,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1352,8 +1688,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1372,8 +1714,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1390,6 +1738,12 @@
         <v>6</v>
       </c>
       <c r="F14" t="s">
+        <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H14" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1401,13 +1755,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18:H19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1423,8 +1779,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1434,8 +1796,14 @@
       <c r="C2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1445,8 +1813,14 @@
       <c r="C3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
@@ -1456,8 +1830,14 @@
       <c r="C4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
@@ -1470,8 +1850,14 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1487,8 +1873,14 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -1504,8 +1896,14 @@
       <c r="F7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
@@ -1518,16 +1916,28 @@
       <c r="D8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>14</v>
       </c>
@@ -1540,8 +1950,14 @@
       <c r="E10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>15</v>
       </c>
@@ -1560,8 +1976,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>16</v>
       </c>
@@ -1580,8 +2002,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>17</v>
       </c>
@@ -1600,8 +2028,14 @@
       <c r="F13" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1" t="s">
         <v>18</v>
       </c>
@@ -1619,6 +2053,12 @@
       </c>
       <c r="F14" t="s">
         <v>6</v>
+      </c>
+      <c r="G14" t="s">
+        <v>23</v>
+      </c>
+      <c r="H14" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1629,15 +2069,15 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G2" sqref="G2:H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1653,8 +2093,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +2116,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1681,8 +2133,14 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1692,8 +2150,14 @@
       <c r="E4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1706,8 +2170,14 @@
       <c r="E5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1723,8 +2193,14 @@
       <c r="E6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1737,8 +2213,14 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
@@ -1751,8 +2233,14 @@
       <c r="F8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1768,8 +2256,14 @@
       <c r="F9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -1788,8 +2282,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -1805,8 +2305,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -1822,8 +2328,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -1837,6 +2349,12 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1848,15 +2366,15 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF614838-CF55-409F-9600-6EF031831584}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1872,8 +2390,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>19</v>
       </c>
@@ -1886,8 +2410,14 @@
       <c r="F2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1900,8 +2430,14 @@
       <c r="F3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
@@ -1914,8 +2450,14 @@
       <c r="F4" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1931,8 +2473,14 @@
       <c r="F5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G5" t="s">
+        <v>6</v>
+      </c>
+      <c r="H5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1948,8 +2496,14 @@
       <c r="F6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G6" t="s">
+        <v>6</v>
+      </c>
+      <c r="H6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1962,13 +2516,25 @@
       <c r="D7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
@@ -1981,8 +2547,14 @@
       <c r="E9" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G9" t="s">
+        <v>6</v>
+      </c>
+      <c r="H9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
         <v>15</v>
       </c>
@@ -2001,8 +2573,14 @@
       <c r="F10" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>16</v>
       </c>
@@ -2021,8 +2599,14 @@
       <c r="F11" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G11" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
         <v>17</v>
       </c>
@@ -2041,8 +2625,14 @@
       <c r="F12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1" t="s">
         <v>18</v>
       </c>
@@ -2059,6 +2649,12 @@
         <v>6</v>
       </c>
       <c r="F13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" t="s">
+        <v>6</v>
+      </c>
+      <c r="H13" t="s">
         <v>6</v>
       </c>
     </row>
